--- a/target/test-classes/com/koinpro/testData/Koinpro_Testcases.xlsx
+++ b/target/test-classes/com/koinpro/testData/Koinpro_Testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="42">
   <si>
     <t>Test Case ID</t>
   </si>

--- a/target/test-classes/com/koinpro/testData/Koinpro_Testcases.xlsx
+++ b/target/test-classes/com/koinpro/testData/Koinpro_Testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t>Test Case ID</t>
   </si>

--- a/target/test-classes/com/koinpro/testData/Koinpro_Testcases.xlsx
+++ b/target/test-classes/com/koinpro/testData/Koinpro_Testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
   <si>
     <t>Test Case ID</t>
   </si>
